--- a/results/I3_N5_M3_T15_C100_DepCentral_s0_P3_res.xlsx
+++ b/results/I3_N5_M3_T15_C100_DepCentral_s0_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1842.836264623021</v>
+        <v>858.2128833321003</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.77660271490709</v>
+        <v>18.39770858716315</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.209165066520216</v>
+        <v>4.02175110787769</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.138826974629349</v>
+        <v>3.836925852814985</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1608.100000000005</v>
+        <v>760</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>213.03</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -868,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -934,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -984,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7.091900992101005</v>
       </c>
     </row>
     <row r="4">
@@ -992,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>10.97824889212231</v>
       </c>
     </row>
     <row r="5">
@@ -1000,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>12.37739353073907</v>
       </c>
     </row>
     <row r="6">
@@ -1008,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.37739353073907</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1016,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.77588400245558</v>
+        <v>14.16274257244262</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.61314143001296</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1032,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.83692585281499</v>
+        <v>14.49989205841819</v>
       </c>
     </row>
     <row r="10">
@@ -1040,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.79834375740628</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1086,13 +1031,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1100,13 +1045,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1114,13 +1059,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1128,13 +1073,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1142,13 +1087,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1156,13 +1101,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1170,13 +1115,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1190,7 +1135,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1204,7 +1149,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1218,37 +1163,9 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5</v>
-      </c>
-      <c r="D13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1351,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>64.12500000000065</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1362,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>69.98000000000064</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -1373,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>68.84500000000065</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1384,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>70.99000000000066</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1395,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>70.99000000000066</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -1406,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>101.3750000000008</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
@@ -1417,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>103.0400000000008</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
@@ -1428,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.9250000000008</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
@@ -1439,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>105.4350000000008</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
@@ -1450,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>105.7050000000008</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17">
@@ -1461,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999936</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -1472,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -1483,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -1494,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1505,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -1516,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>208.0599999999994</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1527,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>189.4349999999993</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -1538,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>206.7149999999993</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1549,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>193.8399999999993</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -1560,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>203.2699999999994</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1571,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>141.3450000000005</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28">
@@ -1582,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>157.3250000000004</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29">
@@ -1593,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>160.3250000000004</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30">
@@ -1604,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>162.85</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31">
@@ -1615,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>161.4050000000005</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32">
@@ -1626,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>141.3450000000005</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33">
@@ -1637,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>157.3250000000004</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34">
@@ -1648,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>160.3250000000004</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35">
@@ -1659,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>162.85</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>161.4050000000005</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37">
@@ -1681,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>101.3750000000008</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
@@ -1692,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>103.0400000000008</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -1703,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>103.9250000000008</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
@@ -1714,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>105.4350000000008</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -1725,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>105.7050000000008</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42">
@@ -1736,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>208.0599999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1747,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>189.4349999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1758,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>206.7149999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1769,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>193.8399999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1780,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>203.2699999999994</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1827,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>41.34500000000045</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -1838,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>57.32500000000044</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -1849,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>60.32500000000044</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
@@ -1860,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>62.85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -1871,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>61.40500000000046</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -1882,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.375000000000796</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1893,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3.040000000000802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1904,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>3.925000000000807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1915,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.435000000000798</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1926,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>5.705000000000794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1937,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>108.0599999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1948,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>89.43499999999935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1959,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>106.7149999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1970,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>93.83999999999935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1981,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>103.2699999999994</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2039,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2050,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2061,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2072,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2083,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2094,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>19.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2105,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2116,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2127,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>16.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2306,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2391,7 +2308,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2402,7 +2319,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2410,7 +2327,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2421,7 +2338,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
         <v>2</v>
@@ -2432,7 +2349,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
         <v>3</v>
@@ -2443,7 +2360,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
         <v>4</v>
@@ -2454,67 +2371,12 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="n">
         <v>1</v>
       </c>
     </row>
